--- a/SchedulingData/static8/pso/scheduling1_2.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_2.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>78.88</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>26.752</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="3">
@@ -485,74 +485,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>65.92</v>
+        <v>65.44</v>
       </c>
       <c r="E3" t="n">
-        <v>26.568</v>
+        <v>27.096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>83.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="E4" t="n">
-        <v>26.36</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>65.40000000000001</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>24.66</v>
+        <v>26.064</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>83.09999999999999</v>
+        <v>65.44</v>
       </c>
       <c r="D6" t="n">
-        <v>141.5</v>
+        <v>133.12</v>
       </c>
       <c r="E6" t="n">
-        <v>23.64</v>
+        <v>22.448</v>
       </c>
     </row>
     <row r="7">
@@ -561,36 +561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>78.88</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>165.08</v>
+        <v>146.68</v>
       </c>
       <c r="E7" t="n">
-        <v>21.232</v>
+        <v>22.632</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>65.40000000000001</v>
+        <v>146.68</v>
       </c>
       <c r="D8" t="n">
-        <v>107.3</v>
+        <v>223.12</v>
       </c>
       <c r="E8" t="n">
-        <v>22.1</v>
+        <v>19.608</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>141.5</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>220.7</v>
+        <v>59.9</v>
       </c>
       <c r="E9" t="n">
-        <v>19.8</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="10">
@@ -618,74 +618,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>67.23999999999999</v>
+        <v>121.18</v>
       </c>
       <c r="E10" t="n">
-        <v>24.956</v>
+        <v>22.652</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>65.92</v>
+        <v>77</v>
       </c>
       <c r="D11" t="n">
-        <v>104.26</v>
+        <v>143.8</v>
       </c>
       <c r="E11" t="n">
-        <v>23.864</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>220.7</v>
+        <v>121.18</v>
       </c>
       <c r="D12" t="n">
-        <v>286.74</v>
+        <v>170.44</v>
       </c>
       <c r="E12" t="n">
-        <v>15.796</v>
+        <v>18.856</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>165.08</v>
+        <v>143.8</v>
       </c>
       <c r="D13" t="n">
-        <v>217.92</v>
+        <v>193.5</v>
       </c>
       <c r="E13" t="n">
-        <v>17.088</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="14">
@@ -694,93 +694,93 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>67.23999999999999</v>
+        <v>170.44</v>
       </c>
       <c r="D14" t="n">
-        <v>136.2</v>
+        <v>221.1</v>
       </c>
       <c r="E14" t="n">
-        <v>21.16</v>
+        <v>14.92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>107.3</v>
+        <v>133.12</v>
       </c>
       <c r="D15" t="n">
-        <v>173.44</v>
+        <v>188.54</v>
       </c>
       <c r="E15" t="n">
-        <v>19.076</v>
+        <v>19.016</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="D16" t="n">
-        <v>87.7</v>
+        <v>134.54</v>
       </c>
       <c r="E16" t="n">
-        <v>24.4</v>
+        <v>22.336</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>286.74</v>
+        <v>221.1</v>
       </c>
       <c r="D17" t="n">
-        <v>358.22</v>
+        <v>285.18</v>
       </c>
       <c r="E17" t="n">
-        <v>11.748</v>
+        <v>11.112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>104.26</v>
+        <v>223.12</v>
       </c>
       <c r="D18" t="n">
-        <v>158.66</v>
+        <v>277.26</v>
       </c>
       <c r="E18" t="n">
-        <v>21.024</v>
+        <v>15.824</v>
       </c>
     </row>
     <row r="19">
@@ -789,112 +789,112 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>87.7</v>
+        <v>193.5</v>
       </c>
       <c r="D19" t="n">
-        <v>154.7</v>
+        <v>263.18</v>
       </c>
       <c r="E19" t="n">
-        <v>20.8</v>
+        <v>12.192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>136.2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>186.86</v>
+        <v>87.7</v>
       </c>
       <c r="E20" t="n">
-        <v>17.224</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>217.92</v>
+        <v>87.7</v>
       </c>
       <c r="D21" t="n">
-        <v>293.92</v>
+        <v>144.8</v>
       </c>
       <c r="E21" t="n">
-        <v>12.108</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>186.86</v>
+        <v>144.8</v>
       </c>
       <c r="D22" t="n">
-        <v>258.96</v>
+        <v>192.64</v>
       </c>
       <c r="E22" t="n">
-        <v>13.144</v>
+        <v>16.176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>154.7</v>
+        <v>277.26</v>
       </c>
       <c r="D23" t="n">
-        <v>215.02</v>
+        <v>349.26</v>
       </c>
       <c r="E23" t="n">
-        <v>17.368</v>
+        <v>11.744</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>258.96</v>
+        <v>188.54</v>
       </c>
       <c r="D24" t="n">
-        <v>314.32</v>
+        <v>239.36</v>
       </c>
       <c r="E24" t="n">
-        <v>9.228</v>
+        <v>15.064</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>173.44</v>
+        <v>192.64</v>
       </c>
       <c r="D25" t="n">
-        <v>223.38</v>
+        <v>248.98</v>
       </c>
       <c r="E25" t="n">
-        <v>15.212</v>
+        <v>12.172</v>
       </c>
     </row>
     <row r="26">
@@ -922,36 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>358.22</v>
+        <v>134.54</v>
       </c>
       <c r="D26" t="n">
-        <v>424.46</v>
+        <v>186.54</v>
       </c>
       <c r="E26" t="n">
-        <v>7.744</v>
+        <v>18.776</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>424.46</v>
+        <v>239.36</v>
       </c>
       <c r="D27" t="n">
-        <v>522.46</v>
+        <v>270.4</v>
       </c>
       <c r="E27" t="n">
-        <v>3.544</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="28">
@@ -960,17 +960,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>158.66</v>
+        <v>270.4</v>
       </c>
       <c r="D28" t="n">
-        <v>199</v>
+        <v>339.5</v>
       </c>
       <c r="E28" t="n">
-        <v>18.12</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="29">
@@ -979,36 +979,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>522.46</v>
+        <v>186.54</v>
       </c>
       <c r="D29" t="n">
-        <v>571.84</v>
+        <v>248.82</v>
       </c>
       <c r="E29" t="n">
-        <v>0.736</v>
+        <v>14.688</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>571.84</v>
+        <v>263.18</v>
       </c>
       <c r="D30" t="n">
-        <v>637.37</v>
+        <v>323.98</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>8.712</v>
       </c>
     </row>
     <row r="31">
@@ -1017,74 +1017,74 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>215.02</v>
+        <v>323.98</v>
       </c>
       <c r="D31" t="n">
-        <v>266.82</v>
+        <v>408.68</v>
       </c>
       <c r="E31" t="n">
-        <v>13.808</v>
+        <v>4.812</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>266.82</v>
+        <v>349.26</v>
       </c>
       <c r="D32" t="n">
-        <v>316.1</v>
+        <v>409.8</v>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>293.92</v>
+        <v>248.98</v>
       </c>
       <c r="D33" t="n">
-        <v>343.06</v>
+        <v>292.38</v>
       </c>
       <c r="E33" t="n">
-        <v>8.324</v>
+        <v>9.452</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>343.06</v>
+        <v>292.38</v>
       </c>
       <c r="D34" t="n">
-        <v>413.06</v>
+        <v>367.32</v>
       </c>
       <c r="E34" t="n">
-        <v>3.944</v>
+        <v>6.548</v>
       </c>
     </row>
     <row r="35">
@@ -1093,36 +1093,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>637.37</v>
+        <v>248.82</v>
       </c>
       <c r="D35" t="n">
-        <v>683.59</v>
+        <v>305.42</v>
       </c>
       <c r="E35" t="n">
-        <v>26.568</v>
+        <v>10.668</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>413.06</v>
+        <v>285.18</v>
       </c>
       <c r="D36" t="n">
-        <v>472.72</v>
+        <v>361.92</v>
       </c>
       <c r="E36" t="n">
-        <v>1.088</v>
+        <v>6.068</v>
       </c>
     </row>
     <row r="37">
@@ -1131,169 +1131,169 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>472.72</v>
+        <v>409.8</v>
       </c>
       <c r="D37" t="n">
-        <v>566.9400000000001</v>
+        <v>469.9</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>314.32</v>
+        <v>367.32</v>
       </c>
       <c r="D38" t="n">
-        <v>370.22</v>
+        <v>434.74</v>
       </c>
       <c r="E38" t="n">
-        <v>5.748</v>
+        <v>2.896</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>223.38</v>
+        <v>305.42</v>
       </c>
       <c r="D39" t="n">
-        <v>267.8</v>
+        <v>365.88</v>
       </c>
       <c r="E39" t="n">
-        <v>11.9</v>
+        <v>6.752</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>267.8</v>
+        <v>408.68</v>
       </c>
       <c r="D40" t="n">
-        <v>332.8</v>
+        <v>471.82</v>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>2.108</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>316.1</v>
+        <v>469.9</v>
       </c>
       <c r="D41" t="n">
-        <v>378.18</v>
+        <v>542.8</v>
       </c>
       <c r="E41" t="n">
-        <v>6.912</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>199</v>
+        <v>542.8</v>
       </c>
       <c r="D42" t="n">
-        <v>255.72</v>
+        <v>619.2</v>
       </c>
       <c r="E42" t="n">
-        <v>14.568</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>370.22</v>
+        <v>339.5</v>
       </c>
       <c r="D43" t="n">
-        <v>439.9</v>
+        <v>395.74</v>
       </c>
       <c r="E43" t="n">
-        <v>1.38</v>
+        <v>5.756</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>439.9</v>
+        <v>619.2</v>
       </c>
       <c r="D44" t="n">
-        <v>523.84</v>
+        <v>666.12</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>21.468</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>523.84</v>
+        <v>434.74</v>
       </c>
       <c r="D45" t="n">
-        <v>575.84</v>
+        <v>505.85</v>
       </c>
       <c r="E45" t="n">
-        <v>26.48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1302,17 +1302,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>332.8</v>
+        <v>505.85</v>
       </c>
       <c r="D46" t="n">
-        <v>375.08</v>
+        <v>557.77</v>
       </c>
       <c r="E46" t="n">
-        <v>4.412</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="47">
@@ -1321,55 +1321,55 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>255.72</v>
+        <v>395.74</v>
       </c>
       <c r="D47" t="n">
-        <v>289.16</v>
+        <v>464.44</v>
       </c>
       <c r="E47" t="n">
-        <v>11.864</v>
+        <v>1.976</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>575.84</v>
+        <v>464.44</v>
       </c>
       <c r="D48" t="n">
-        <v>621.6799999999999</v>
+        <v>537.49</v>
       </c>
       <c r="E48" t="n">
-        <v>24.016</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>289.16</v>
+        <v>361.92</v>
       </c>
       <c r="D49" t="n">
-        <v>334.48</v>
+        <v>407.54</v>
       </c>
       <c r="E49" t="n">
-        <v>8.952</v>
+        <v>2.636</v>
       </c>
     </row>
     <row r="50">
@@ -1378,55 +1378,55 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>621.6799999999999</v>
+        <v>407.54</v>
       </c>
       <c r="D50" t="n">
-        <v>667.52</v>
+        <v>483.97</v>
       </c>
       <c r="E50" t="n">
-        <v>21.052</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>566.9400000000001</v>
+        <v>483.97</v>
       </c>
       <c r="D51" t="n">
-        <v>626.74</v>
+        <v>548.6900000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>26.22</v>
+        <v>26.688</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>375.08</v>
+        <v>365.88</v>
       </c>
       <c r="D52" t="n">
-        <v>449.46</v>
+        <v>417.58</v>
       </c>
       <c r="E52" t="n">
-        <v>0.604</v>
+        <v>4.192</v>
       </c>
     </row>
     <row r="53">
@@ -1435,74 +1435,74 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>449.46</v>
+        <v>557.77</v>
       </c>
       <c r="D53" t="n">
-        <v>530.15</v>
+        <v>652.87</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>22.588</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>334.48</v>
+        <v>548.6900000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>382.88</v>
+        <v>611.79</v>
       </c>
       <c r="E54" t="n">
-        <v>4.752</v>
+        <v>22.488</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>382.88</v>
+        <v>417.58</v>
       </c>
       <c r="D55" t="n">
-        <v>437.18</v>
+        <v>481.1</v>
       </c>
       <c r="E55" t="n">
-        <v>0.952</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>437.18</v>
+        <v>481.1</v>
       </c>
       <c r="D56" t="n">
-        <v>507.18</v>
+        <v>549.9</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="57">
@@ -1511,36 +1511,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>667.52</v>
+        <v>611.79</v>
       </c>
       <c r="D57" t="n">
-        <v>737.8200000000001</v>
+        <v>680.67</v>
       </c>
       <c r="E57" t="n">
-        <v>16.632</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>626.74</v>
+        <v>471.82</v>
       </c>
       <c r="D58" t="n">
-        <v>693.0599999999999</v>
+        <v>559.3</v>
       </c>
       <c r="E58" t="n">
-        <v>23.228</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
@@ -1549,112 +1549,112 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>378.18</v>
+        <v>559.3</v>
       </c>
       <c r="D59" t="n">
-        <v>433.84</v>
+        <v>641.6</v>
       </c>
       <c r="E59" t="n">
-        <v>2.976</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>530.15</v>
+        <v>549.9</v>
       </c>
       <c r="D60" t="n">
-        <v>600.59</v>
+        <v>585.42</v>
       </c>
       <c r="E60" t="n">
-        <v>27.096</v>
+        <v>22.888</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>693.0599999999999</v>
+        <v>652.87</v>
       </c>
       <c r="D61" t="n">
-        <v>771.86</v>
+        <v>709.17</v>
       </c>
       <c r="E61" t="n">
-        <v>19.928</v>
+        <v>19.068</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>433.84</v>
+        <v>537.49</v>
       </c>
       <c r="D62" t="n">
-        <v>514.49</v>
+        <v>596.13</v>
       </c>
       <c r="E62" t="n">
-        <v>30</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>514.49</v>
+        <v>596.13</v>
       </c>
       <c r="D63" t="n">
-        <v>566.01</v>
+        <v>655.89</v>
       </c>
       <c r="E63" t="n">
-        <v>26.048</v>
+        <v>24.44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>507.18</v>
+        <v>680.67</v>
       </c>
       <c r="D64" t="n">
-        <v>572.2</v>
+        <v>719.83</v>
       </c>
       <c r="E64" t="n">
-        <v>27.168</v>
+        <v>16.404</v>
       </c>
     </row>
     <row r="65">
@@ -1663,17 +1663,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>572.2</v>
+        <v>655.89</v>
       </c>
       <c r="D65" t="n">
-        <v>649.92</v>
+        <v>719.77</v>
       </c>
       <c r="E65" t="n">
-        <v>23.516</v>
+        <v>21.632</v>
       </c>
     </row>
     <row r="66">
@@ -1682,79 +1682,79 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>683.59</v>
+        <v>585.42</v>
       </c>
       <c r="D66" t="n">
-        <v>750.6900000000001</v>
+        <v>652.5</v>
       </c>
       <c r="E66" t="n">
-        <v>22.488</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>600.59</v>
+        <v>666.12</v>
       </c>
       <c r="D67" t="n">
-        <v>654.65</v>
+        <v>745.52</v>
       </c>
       <c r="E67" t="n">
-        <v>23.82</v>
+        <v>16.128</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>566.01</v>
+        <v>719.83</v>
       </c>
       <c r="D68" t="n">
-        <v>638.49</v>
+        <v>797.23</v>
       </c>
       <c r="E68" t="n">
-        <v>21.4</v>
+        <v>12.764</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>737.8200000000001</v>
+        <v>719.77</v>
       </c>
       <c r="D69" t="n">
-        <v>794.8200000000001</v>
+        <v>788.05</v>
       </c>
       <c r="E69" t="n">
-        <v>12.552</v>
+        <v>18.384</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1762,32 +1762,32 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>654.65</v>
+        <v>745.52</v>
       </c>
       <c r="D70" t="n">
-        <v>734.65</v>
+        <v>806.02</v>
       </c>
       <c r="E70" t="n">
-        <v>19.9</v>
+        <v>12.208</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>771.86</v>
+        <v>652.5</v>
       </c>
       <c r="D71" t="n">
-        <v>823.36</v>
+        <v>701.92</v>
       </c>
       <c r="E71" t="n">
-        <v>15.908</v>
+        <v>16.468</v>
       </c>
     </row>
   </sheetData>
